--- a/data/trans_dic/P69_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Estudios-trans_dic.xlsx
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,28; 100,0</t>
+          <t>95,53; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,59; 100,0</t>
+          <t>91,58; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -754,32 +754,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>74,39; 100,0</t>
+          <t>63,75; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>95,81; 100,0</t>
+          <t>95,98; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,82; 100,0</t>
+          <t>96,07; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>95,75; 100,0</t>
+          <t>95,19; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>91,92; 100,0</t>
+          <t>92,32; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,43; 100,0</t>
+          <t>98,66; 100,0</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,48; 99,7</t>
+          <t>97,5; 99,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,67; 99,6</t>
+          <t>96,24; 99,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>96,81; 100,0</t>
+          <t>96,45; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,9; 99,65</t>
+          <t>96,6; 99,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,12; 99,79</t>
+          <t>98,1; 99,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>97,85; 99,74</t>
+          <t>97,82; 99,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>97,74; 99,56</t>
+          <t>97,69; 99,57</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,4; 100,0</t>
+          <t>91,53; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,07; 100,0</t>
+          <t>93,71; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>95,62; 100,0</t>
+          <t>95,71; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>96,19; 100,0</t>
+          <t>95,2; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,68; 100,0</t>
+          <t>97,13; 100,0</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,79</t>
+          <t>98,13; 99,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,99; 100,0</t>
+          <t>98,75; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,7; 99,71</t>
+          <t>97,19; 99,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97,66; 99,78</t>
+          <t>97,54; 99,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,32 +1174,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>97,88; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,58</t>
+          <t>97,52; 99,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>98,62; 99,85</t>
+          <t>98,71; 99,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>99,2; 100,0</t>
+          <t>98,97; 100,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,66</t>
+          <t>98,01; 99,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,26; 99,57</t>
+          <t>98,1; 99,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P69_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,53; 100,0</t>
+          <t>95,19; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,58; 100,0</t>
+          <t>93,59; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100,0</t>
+          <t>74,82; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,07; 100,0</t>
+          <t>96,08; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>95,19; 100,0</t>
+          <t>95,71; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92,32; 100,0</t>
+          <t>90,92; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,5; 99,71</t>
+          <t>97,32; 99,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,24; 99,6</t>
+          <t>96,59; 99,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,79</t>
+          <t>98,24; 99,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>97,82; 99,74</t>
+          <t>97,91; 99,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,53; 100,0</t>
+          <t>93,34; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>95,2; 100,0</t>
+          <t>96,21; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,79</t>
+          <t>98,05; 99,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,75; 100,0</t>
+          <t>98,76; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,19; 99,71</t>
+          <t>97,18; 99,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,88; 100,0</t>
+          <t>97,02; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>98,71; 99,86</t>
+          <t>98,57; 99,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>98,97; 100,0</t>
+          <t>99,26; 100,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,67</t>
+          <t>98,02; 99,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P69_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,19; 100,0</t>
+          <t>95,28; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,59; 100,0</t>
+          <t>92,59; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -754,32 +754,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>74,82; 100,0</t>
+          <t>74,39; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>95,98; 100,0</t>
+          <t>95,81; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,08; 100,0</t>
+          <t>96,82; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>95,71; 100,0</t>
+          <t>95,75; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>90,92; 100,0</t>
+          <t>91,92; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,66; 100,0</t>
+          <t>98,43; 100,0</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,32; 99,71</t>
+          <t>97,48; 99,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,59; 99,6</t>
+          <t>96,67; 99,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>96,45; 100,0</t>
+          <t>96,81; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,6; 99,63</t>
+          <t>96,9; 99,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,24; 99,79</t>
+          <t>98,12; 99,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +914,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>97,91; 99,74</t>
+          <t>97,85; 99,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>97,69; 99,57</t>
+          <t>97,74; 99,56</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,34; 100,0</t>
+          <t>90,4; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,71; 100,0</t>
+          <t>94,07; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>95,71; 100,0</t>
+          <t>95,62; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>96,21; 100,0</t>
+          <t>96,19; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>97,13; 100,0</t>
+          <t>96,68; 100,0</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,05; 99,8</t>
+          <t>98,04; 99,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,76; 100,0</t>
+          <t>98,99; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,18; 99,72</t>
+          <t>96,7; 99,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97,54; 99,78</t>
+          <t>97,66; 99,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,32 +1174,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,02; 100,0</t>
+          <t>97,3; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>97,52; 99,64</t>
+          <t>97,53; 99,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>98,57; 99,86</t>
+          <t>98,62; 99,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>99,26; 100,0</t>
+          <t>99,2; 100,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>98,02; 99,67</t>
+          <t>98,13; 99,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,1; 99,56</t>
+          <t>98,26; 99,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P69_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Estudios-trans_dic.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>99,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>99,73%</t>
+          <t>99,7%</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>95,81; 100,0</t>
+          <t>95,18; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,43; 100,0</t>
+          <t>98,29; 100,0</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>99,02%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>96,81; 100,0</t>
+          <t>97,04; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,9; 99,65</t>
+          <t>97,08; 99,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>97,74; 99,56</t>
+          <t>97,87; 99,61</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>99,1%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,07; 100,0</t>
+          <t>94,3; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>95,62; 100,0</t>
+          <t>95,56; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,68; 100,0</t>
+          <t>96,73; 100,0</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>99,09%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97,66; 99,78</t>
+          <t>97,79; 99,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>97,53; 99,58</t>
+          <t>97,7; 99,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,26; 99,57</t>
+          <t>98,37; 99,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P69_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P69_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,28; 100,0</t>
+          <t>95,24; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,59; 100,0</t>
+          <t>94,27; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -754,32 +755,32 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>74,39; 100,0</t>
+          <t>70,23; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>95,18; 100,0</t>
+          <t>95,56; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>96,82; 100,0</t>
+          <t>96,29; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>95,75; 100,0</t>
+          <t>95,82; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>91,92; 100,0</t>
+          <t>91,31; 100,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,29; 100,0</t>
+          <t>98,24; 100,0</t>
         </is>
       </c>
     </row>
@@ -864,7 +865,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,48; 99,7</t>
+          <t>97,17; 99,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,67; 99,6</t>
+          <t>96,68; 99,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>97,04; 100,0</t>
+          <t>97,18; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,12 +900,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>97,08; 99,71</t>
+          <t>96,98; 99,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98,12; 99,79</t>
+          <t>98,05; 99,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>97,85; 99,74</t>
+          <t>97,84; 99,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>97,87; 99,61</t>
+          <t>97,96; 99,64</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,4; 100,0</t>
+          <t>91,65; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,3; 100,0</t>
+          <t>94,81; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>95,56; 100,0</t>
+          <t>95,85; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>96,19; 100,0</t>
+          <t>96,25; 100,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>96,73; 100,0</t>
+          <t>96,64; 100,0</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1145,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,04; 99,79</t>
+          <t>98,09; 99,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>98,99; 100,0</t>
+          <t>98,6; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,7; 99,71</t>
+          <t>97,15; 99,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>97,79; 99,79</t>
+          <t>97,77; 99,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,32 +1175,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,3; 100,0</t>
+          <t>97,18; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>97,7; 99,6</t>
+          <t>97,66; 99,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>98,62; 99,85</t>
+          <t>98,58; 99,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>99,2; 100,0</t>
+          <t>99,1; 100,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,66</t>
+          <t>97,9; 99,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,37; 99,59</t>
+          <t>98,29; 99,57</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que considera que tiene problemas de salud a causa del trabajo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>110268</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>57954</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55581</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29214</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>37568</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37935</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16912</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>24824</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>147836</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>95889</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>72493</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54038</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>105994; 111286</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>55398; 58767</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>53537; 55581</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>27665; 29214</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35728; 37568</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>35977; 37935</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12659; 18024</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23877; 24986</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>143327; 148854</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>92663; 96702</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>67211; 73605</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>53249; 54200</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>284108</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>225637</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>226526</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>237595</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>118571</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>131572</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>124565</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>235650</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>402678</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>357209</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>351091</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>473245</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>278819; 286093</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>223642; 225637</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>221762; 228469</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>232831; 239580</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>116628; 118571</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>129487; 131572</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>122623; 124565</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>231178; 237636</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>397617; 404670</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>355174; 357209</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>346295; 353029</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>468190; 476208</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>74075</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>46089</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>62493</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68814</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>63983</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46321</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>73708</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>89960</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>138058</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>92410</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>136201</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>158775</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>72077; 74075</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>44087; 46089</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>58226; 63528</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>65915; 69526</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>62008; 63983</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>44262; 46321</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>71633; 73708</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>86934; 90695</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>136052; 138058</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>90351; 92410</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>132091; 137236</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>154830; 160221</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>468450</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>329680</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>344601</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>335624</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>220121</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>215828</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>215186</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>350434</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>688572</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>545508</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>559786</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>686058</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>463283; 471292</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>325859; 330493</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>338572; 347471</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>330771; 337613</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>218166; 220121</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>213747; 215828</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>210200; 216298</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>345752; 352782</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>682580; 691449</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>541426; 546321</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>552939; 562841</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>680552; 689417</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>